--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H2">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I2">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J2">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>279.3589198492011</v>
+        <v>148.4192049732405</v>
       </c>
       <c r="R2">
-        <v>2514.23027864281</v>
+        <v>1335.772844759164</v>
       </c>
       <c r="S2">
-        <v>0.05353485440695051</v>
+        <v>0.02422141462918404</v>
       </c>
       <c r="T2">
-        <v>0.05353485440695051</v>
+        <v>0.02422141462918404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H3">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I3">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J3">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>106.2694042302519</v>
+        <v>129.0483493118182</v>
       </c>
       <c r="R3">
-        <v>956.4246380722669</v>
+        <v>1161.435143806364</v>
       </c>
       <c r="S3">
-        <v>0.02036490220699204</v>
+        <v>0.02106016924465325</v>
       </c>
       <c r="T3">
-        <v>0.02036490220699204</v>
+        <v>0.02106016924465326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H4">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I4">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J4">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>1154.831278692718</v>
+        <v>1881.382646662484</v>
       </c>
       <c r="R4">
-        <v>10393.48150823446</v>
+        <v>16932.44381996235</v>
       </c>
       <c r="S4">
-        <v>0.2213057109570004</v>
+        <v>0.3070340470371052</v>
       </c>
       <c r="T4">
-        <v>0.2213057109570004</v>
+        <v>0.3070340470371052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H5">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I5">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J5">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>1.792984274445</v>
+        <v>3.702752309508</v>
       </c>
       <c r="R5">
-        <v>16.136858470005</v>
+        <v>33.32477078557201</v>
       </c>
       <c r="S5">
-        <v>0.000343597949684868</v>
+        <v>0.0006042742175713187</v>
       </c>
       <c r="T5">
-        <v>0.000343597949684868</v>
+        <v>0.0006042742175713188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>254.4987925358333</v>
+        <v>111.3445787000833</v>
       </c>
       <c r="R6">
-        <v>2290.4891328225</v>
+        <v>1002.10120830075</v>
       </c>
       <c r="S6">
-        <v>0.04877079211397698</v>
+        <v>0.01817098540510831</v>
       </c>
       <c r="T6">
-        <v>0.04877079211397696</v>
+        <v>0.01817098540510832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>96.81249868341666</v>
@@ -883,10 +883,10 @@
         <v>871.31248815075</v>
       </c>
       <c r="S7">
-        <v>0.01855263123363849</v>
+        <v>0.01579940865685915</v>
       </c>
       <c r="T7">
-        <v>0.01855263123363849</v>
+        <v>0.01579940865685916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>1052.062938131917</v>
+        <v>1411.41948714825</v>
       </c>
       <c r="R8">
-        <v>9468.56644318725</v>
+        <v>12702.77538433425</v>
       </c>
       <c r="S8">
-        <v>0.2016117339308284</v>
+        <v>0.2303379580836037</v>
       </c>
       <c r="T8">
-        <v>0.2016117339308284</v>
+        <v>0.2303379580836037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>1.63342675125</v>
+        <v>2.77781703525</v>
       </c>
       <c r="R9">
-        <v>14.70084076125</v>
+        <v>25.00035331725</v>
       </c>
       <c r="S9">
-        <v>0.0003130211963870356</v>
+        <v>0.0004533285176061403</v>
       </c>
       <c r="T9">
-        <v>0.0003130211963870356</v>
+        <v>0.0004533285176061404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H10">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>377.2693611735656</v>
+        <v>145.1030811118998</v>
       </c>
       <c r="R10">
-        <v>3395.42425056209</v>
+        <v>1305.927730007098</v>
       </c>
       <c r="S10">
-        <v>0.07229788951622704</v>
+        <v>0.02368023661235162</v>
       </c>
       <c r="T10">
-        <v>0.07229788951622701</v>
+        <v>0.02368023661235162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H11">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>143.5149816153514</v>
+        <v>126.1650276386109</v>
       </c>
       <c r="R11">
-        <v>1291.634834538163</v>
+        <v>1135.485248747498</v>
       </c>
       <c r="S11">
-        <v>0.02750244613682412</v>
+        <v>0.02058962279637751</v>
       </c>
       <c r="T11">
-        <v>0.02750244613682412</v>
+        <v>0.02058962279637751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H12">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>1559.579550962025</v>
+        <v>1839.346995763838</v>
       </c>
       <c r="R12">
-        <v>14036.21595865823</v>
+        <v>16554.12296187454</v>
       </c>
       <c r="S12">
-        <v>0.2988695125320448</v>
+        <v>0.3001739986369854</v>
       </c>
       <c r="T12">
-        <v>0.2988695125320447</v>
+        <v>0.3001739986369854</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H13">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>2.421394069605</v>
+        <v>3.620021875206</v>
       </c>
       <c r="R13">
-        <v>21.792546626445</v>
+        <v>32.580196876854</v>
       </c>
       <c r="S13">
-        <v>0.0004640230533828354</v>
+        <v>0.0005907729449291261</v>
       </c>
       <c r="T13">
-        <v>0.0004640230533828353</v>
+        <v>0.0005907729449291261</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H14">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I14">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J14">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N14">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q14">
-        <v>34.09303518068222</v>
+        <v>15.67956180183567</v>
       </c>
       <c r="R14">
-        <v>306.83731662614</v>
+        <v>141.116056216521</v>
       </c>
       <c r="S14">
-        <v>0.006533407544939304</v>
+        <v>0.002558841139693823</v>
       </c>
       <c r="T14">
-        <v>0.006533407544939303</v>
+        <v>0.002558841139693823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H15">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I15">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J15">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.771439</v>
       </c>
       <c r="O15">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P15">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q15">
-        <v>12.96914571049978</v>
+        <v>13.63315191470234</v>
       </c>
       <c r="R15">
-        <v>116.722311394498</v>
+        <v>122.698367232321</v>
       </c>
       <c r="S15">
-        <v>0.002485337957953585</v>
+        <v>0.002224875313731778</v>
       </c>
       <c r="T15">
-        <v>0.002485337957953584</v>
+        <v>0.002224875313731779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H16">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I16">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J16">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N16">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O16">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P16">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q16">
-        <v>140.9359093795038</v>
+        <v>198.756323257251</v>
       </c>
       <c r="R16">
-        <v>1268.423184415534</v>
+        <v>1788.806909315259</v>
       </c>
       <c r="S16">
-        <v>0.02700820648009276</v>
+        <v>0.03243622896817153</v>
       </c>
       <c r="T16">
-        <v>0.02700820648009276</v>
+        <v>0.03243622896817154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H17">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I17">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J17">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N17">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P17">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q17">
-        <v>0.21881626683</v>
+        <v>0.3911726496870001</v>
       </c>
       <c r="R17">
-        <v>1.96934640147</v>
+        <v>3.520553847183</v>
       </c>
       <c r="S17">
-        <v>4.193278307683858E-05</v>
+        <v>6.383779606806044E-05</v>
       </c>
       <c r="T17">
-        <v>4.193278307683857E-05</v>
+        <v>6.383779606806045E-05</v>
       </c>
     </row>
   </sheetData>
